--- a/user-data/oda-LI/oda-LI.xlsx
+++ b/user-data/oda-LI/oda-LI.xlsx
@@ -33,7 +33,7 @@
     <t xml:space="preserve">Description: Gross official development assistance from Liechtenstein</t>
   </si>
   <si>
-    <t xml:space="preserve">Units of measure: NA</t>
+    <t xml:space="preserve">Units of measure: constant 2015 US$</t>
   </si>
   <si>
     <t xml:space="preserve">Source: Development Initiatives based on OECD DAC.</t>

--- a/user-data/oda-LI/oda-LI.xlsx
+++ b/user-data/oda-LI/oda-LI.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">id-to</t>
   </si>
@@ -25,6 +25,12 @@
   </si>
   <si>
     <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bilateral-unspecified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bilateral, unspecified</t>
   </si>
   <si>
     <t xml:space="preserve">Name: oda-LI</t>
@@ -394,22 +400,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -417,7 +423,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -425,42 +431,42 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -492,10 +498,18 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19051100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/user-data/oda-LI/oda-LI.xlsx
+++ b/user-data/oda-LI/oda-LI.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">id-to</t>
   </si>
@@ -27,13 +27,19 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">bilateral-unspecified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bilateral, unspecified</t>
+  </si>
+  <si>
     <t xml:space="preserve">Name: oda-LI</t>
   </si>
   <si>
     <t xml:space="preserve">Description: Gross official development assistance from Liechtenstein</t>
   </si>
   <si>
-    <t xml:space="preserve">Units of measure: NA</t>
+    <t xml:space="preserve">Units of measure: constant 2015 US$</t>
   </si>
   <si>
     <t xml:space="preserve">Source: Development Initiatives based on OECD DAC.</t>
@@ -394,22 +400,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -417,7 +423,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -425,42 +431,42 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -492,10 +498,18 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19051100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
